--- a/rawdata/ZMB_PovertyMapping_Data.xlsx
+++ b/rawdata/ZMB_PovertyMapping_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="District_poverty" sheetId="5" r:id="rId1"/>
@@ -10747,8 +10747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1422"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60539,7 +60539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
